--- a/mpaa/laba3/laba3.xlsx
+++ b/mpaa/laba3/laba3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local\Desktop\дз\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\дз\homework2\mpaa\laba3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B02012-161D-4128-9F48-BC625A90D182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FEBF42-D34E-4AA3-AC72-7C14447100EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="1545" windowWidth="21600" windowHeight="11835" xr2:uid="{02B65833-8687-4EE9-8E2D-B68A05175D17}"/>
+    <workbookView xWindow="5205" yWindow="885" windowWidth="21600" windowHeight="11835" xr2:uid="{02B65833-8687-4EE9-8E2D-B68A05175D17}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,6 @@
     <t>8.649e-06</t>
   </si>
   <si>
-    <t>0.000214865</t>
-  </si>
-  <si>
-    <t>1.7149e-05</t>
-  </si>
-  <si>
     <t>0.00258462</t>
   </si>
   <si>
@@ -64,13 +58,19 @@
   </si>
   <si>
     <t>2.13843</t>
+  </si>
+  <si>
+    <t>0.001649</t>
+  </si>
+  <si>
+    <t>0.0088</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,8 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -419,14 +428,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -439,7 +448,7 @@
         <v>100</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:G1" si="0">C1*10</f>
+        <f t="shared" ref="D1:E1" si="0">C1*10</f>
         <v>1000</v>
       </c>
       <c r="E1">
@@ -454,14 +463,14 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -471,17 +480,18 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>